--- a/biology/Zoologie/Caeruleuptychia_brixius/Caeruleuptychia_brixius.xlsx
+++ b/biology/Zoologie/Caeruleuptychia_brixius/Caeruleuptychia_brixius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia brixius est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Caeruleuptychia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia brixius a été décrit par l'entomologiste français Jean-Baptiste Godart en 1824, sous le nom initial de Satyrus brixius.
-Synonyme : Euptychia brixiola Butler, 1867[1].
-Nom vernaculaire
-Caeruleuptychia brixius se nomme Brixius Satyr en anglais[2].
+Synonyme : Euptychia brixiola Butler, 1867.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caeruleuptychia brixius est un papillon aux ailes translucides au dessus gris clair chez le mâle, beige chez la femelle.
-Le revers est blanc grisé ou bleuté chez le mâle, rayé de bandes foncées, avec un très discret ocelle à l'apex des ailes antérieures et aux ailes postérieures une ligne d'ocelles dont les deux proches de l'apex et le gros proche de l'angle anal sont noir  cernés de jaune et doublement pupillés[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia brixius se nomme Brixius Satyr en anglais.
 </t>
         </is>
       </c>
@@ -574,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole toute l'année[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia brixius est un papillon aux ailes translucides au dessus gris clair chez le mâle, beige chez la femelle.
+Le revers est blanc grisé ou bleuté chez le mâle, rayé de bandes foncées, avec un très discret ocelle à l'apex des ailes antérieures et aux ailes postérieures une ligne d'ocelles dont les deux proches de l'apex et le gros proche de l'angle anal sont noir  cernés de jaune et doublement pupillés.
 </t>
         </is>
       </c>
@@ -605,16 +625,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_brixius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_brixius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caeruleuptychia brixius est présent au Brésil, au Surinam et en Guyane[1],[3].
-Biotope
-Caeruleuptychia brixius réside en sous-bois clair de forêt primaire[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia brixius est présent au Brésil, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_brixius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_brixius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caeruleuptychia brixius réside en sous-bois clair de forêt primaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caeruleuptychia_brixius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caeruleuptychia_brixius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
